--- a/dataset/engine-asg/network.xlsx
+++ b/dataset/engine-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,51 +438,1781 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/22/2021 06:03:41</t>
+          <t>05/23/2021 22:06:51</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.176</v>
+        <v>25.376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/22/2021 06:04:43</t>
+          <t>05/23/2021 22:07:52</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.296</v>
+        <v>25.024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/22/2021 06:05:46</t>
+          <t>05/23/2021 22:08:54</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32.351</v>
+        <v>27.372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/22/2021 06:06:48</t>
+          <t>05/23/2021 22:09:57</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.694</v>
+        <v>27.372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/22/2021 06:09:08</t>
+          <t>05/23/2021 22:10:59</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.024</v>
+        <v>30.552</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:12:02</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>25.328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:13:04</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:14:06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25.176</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:15:08</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>30.442</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:16:11</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41.474</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:17:14</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>30.792</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:18:17</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>20.652</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:19:21</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>189.446</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:20:25</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>119.866</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:21:29</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>276.478</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:26:45</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>43.808</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:27:49</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>50.95999999999999</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:28:53</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>53.826</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:29:57</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:31:01</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>55.162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:32:05</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>46.108</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:33:11</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>114.794</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:34:16</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>219.464</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:35:21</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>198.924</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:36:26</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>202.372</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:37:31</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>202.036</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:38:36</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>204.258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:43:53</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>85.83799999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:44:59</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>76.744</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:46:06</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>94.902</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:47:11</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>86.78999999999999</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:48:17</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>101.642</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:49:24</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>85.474</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:50:29</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>176.65</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:51:36</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>265.134</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:52:41</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>209.464</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:53:49</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>145.73</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:54:56</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>237.218</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:56:05</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>222.678</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:57:11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>236.088</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:58:18</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>163.874</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>05/23/2021 22:59:25</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>93.53400000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:00:33</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>86.976</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:01:38</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:02:45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>75.178</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:03:52</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>76.024</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:04:59</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>83.43000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:06:08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>86.23</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:07:16</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>57.90600000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:08:22</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>127.026</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:09:28</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>195.94</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:10:34</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>195.94</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:11:39</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>109.514</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:12:44</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>93.596</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:13:50</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>28.682</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:14:56</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>205.082</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:16:02</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>201.044</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:17:09</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>53.82599999999999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:18:17</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>50.896</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:19:23</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>52.148</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:20:29</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:21:37</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>25.472</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:22:43</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>25.472</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:23:49</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>25.264</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:24:55</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>30.074</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:26:02</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>93.77200000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:27:08</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>88.69199999999999</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:29:15</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>175.846</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:30:22</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>36.988</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:31:31</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>30.578</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:32:37</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:33:43</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>33.308</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:34:52</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:35:59</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>27.204</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:37:07</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:38:16</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>29.812</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:39:23</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>26.374</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:40:30</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>100.306</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:41:38</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>112.96</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:42:45</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>35.354</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:43:52</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>25.624</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:45:00</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:46:07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>26.43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:47:15</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>24.322</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:48:24</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:49:33</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:50:40</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25.176</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:51:48</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>108.444</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:52:57</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>167.894</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:54:07</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>35.252</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:55:16</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>24.968</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:56:24</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>32.14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:57:32</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>25.424</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:58:43</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>05/23/2021 23:59:53</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24.968</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:01:04</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:02:18</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>24.968</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:03:30</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>30.682</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:04:40</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:05:50</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>112.384</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:07:01</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>108.14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:08:13</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>185.53</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:09:23</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>182.322</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:10:32</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>156.064</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:11:39</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>182.946</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:12:47</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>106.268</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:13:58</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>38.024</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:15:05</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:16:13</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>27.252</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:17:21</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>25.176</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:18:30</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:19:40</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>30.226</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:20:48</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>25.224</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:21:56</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:23:04</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>101.97</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:24:13</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>34.21</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:25:24</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>27.802</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:26:33</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>25.632</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:27:41</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:28:49</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:29:57</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:31:11</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:32:24</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:33:37</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>105.01</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:34:51</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>180.004</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:35:59</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>35.26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:37:06</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>25.998</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:38:19</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:39:38</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>26.118</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:40:51</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>24.474</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:42:18</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:43:33</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>25.424</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:44:46</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>26.166</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:46:01</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>32.336</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:47:15</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>25.168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:48:29</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>26.022</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:49:44</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:50:59</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>27.65</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:52:13</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>26.374</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:53:35</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>24.794</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:54:49</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>25.224</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:56:04</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>176.256</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:57:18</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>99.61799999999999</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:58:40</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>164.854</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>05/24/2021 00:59:53</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>170.92</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:01:08</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>184.946</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:02:19</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>36.542</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:03:33</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:04:51</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>18.804</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:06:04</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>26.326</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:07:18</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>24.378</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:08:31</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>24.968</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:09:46</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>30.266</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:10:59</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>25.168</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:13:14</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>36.836</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:14:28</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:15:41</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:16:55</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>25.176</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:18:09</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>32.434</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:19:23</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>30.378</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:20:37</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>26.144</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:21:56</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:23:11</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>156.004</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:24:26</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>89.03</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:25:41</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>175.698</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:26:56</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>190.124</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:28:12</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>181.394</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:29:26</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>34.156</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:30:41</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>25.176</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:31:57</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>25.328</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:33:19</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:34:34</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>25.472</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:35:49</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:37:04</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:38:21</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>25.32</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:39:37</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>174.21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:40:55</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>178.864</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>05/24/2021 01:42:11</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>27.802</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/engine-asg/network.xlsx
+++ b/dataset/engine-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,26 @@
         <v>133.386</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:35:47</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>214.007</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05/26/2021 01:41:07</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>107.864</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/dataset/engine-asg/network.xlsx
+++ b/dataset/engine-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,231 +438,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/26/2021 01:05:30</t>
+          <t>05/26/2021 01:55:32</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.528</v>
+        <v>24.506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/26/2021 01:06:31</t>
+          <t>05/26/2021 01:56:34</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:07:33</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>25.68</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:08:35</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>25.328</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:09:37</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>29.852</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:10:40</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>27.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:11:42</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>26.678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:12:44</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>30.642</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:13:46</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>46.638</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:14:49</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>25.552</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:15:52</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>25.476</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:16:55</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>25.005</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:17:58</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>117.598</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:19:01</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>114.534</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:20:05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>117.432</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:21:09</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>129.69</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:26:21</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>119.07</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:27:24</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>145.626</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:28:27</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>146.002</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:33:39</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>248.849</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:34:43</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>133.386</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:35:47</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>214.007</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>05/26/2021 01:41:07</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>107.864</v>
+        <v>27.972</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/engine-asg/network.xlsx
+++ b/dataset/engine-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,2511 +438,2861 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06/01/2021 00:56:14</t>
+          <t>06/11/2021 00:11:57</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25.32</v>
+        <v>40.118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06/01/2021 00:57:26</t>
+          <t>06/11/2021 00:12:59</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.172</v>
+        <v>30.537</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06/01/2021 00:58:40</t>
+          <t>06/11/2021 00:14:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.228</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06/01/2021 00:59:53</t>
+          <t>06/11/2021 00:15:04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.577</v>
+        <v>25.376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>06/01/2021 01:01:05</t>
+          <t>06/11/2021 00:16:07</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.48</v>
+        <v>30.022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06/01/2021 01:02:19</t>
+          <t>06/11/2021 00:17:11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.378</v>
+        <v>25.168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>06/01/2021 01:03:30</t>
+          <t>06/11/2021 00:18:15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.117</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>06/01/2021 01:04:43</t>
+          <t>06/11/2021 00:19:18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.172</v>
+        <v>25.848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06/01/2021 01:05:56</t>
+          <t>06/11/2021 00:20:22</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.763</v>
+        <v>25.024</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06/01/2021 01:07:09</t>
+          <t>06/11/2021 00:21:32</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.274</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06/01/2021 01:08:20</t>
+          <t>06/11/2021 00:22:42</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.361</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06/01/2021 01:09:35</t>
+          <t>06/11/2021 00:23:54</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.38</v>
+        <v>32.141</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06/01/2021 01:10:46</t>
+          <t>06/11/2021 00:24:58</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.444</v>
+        <v>40.511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>06/01/2021 01:11:57</t>
+          <t>06/11/2021 00:26:06</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.485</v>
+        <v>25.424</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>06/01/2021 01:16:56</t>
+          <t>06/11/2021 00:27:10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.227</v>
+        <v>25.024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06/01/2021 01:18:11</t>
+          <t>06/11/2021 00:28:15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>148.084</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>06/01/2021 01:19:26</t>
+          <t>06/11/2021 00:29:20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.604</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06/01/2021 01:20:41</t>
+          <t>06/11/2021 00:30:26</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.273</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>06/01/2021 01:26:01</t>
+          <t>06/11/2021 00:31:32</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95.10933333333332</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>06/01/2021 01:27:28</t>
+          <t>06/11/2021 00:32:35</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95.55966666666666</v>
+        <v>30.332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>06/01/2021 01:28:48</t>
+          <t>06/11/2021 00:33:39</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.75366666666666</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>06/01/2021 01:30:08</t>
+          <t>06/11/2021 00:34:43</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.01866666666666</v>
+        <v>19.272</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>06/01/2021 01:31:28</t>
+          <t>06/11/2021 00:35:45</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68.61499999999999</v>
+        <v>26.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>06/01/2021 01:32:48</t>
+          <t>06/11/2021 00:36:48</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>71.774</v>
+        <v>293.152</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>06/01/2021 01:34:09</t>
+          <t>06/11/2021 00:40:54</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>48.02</v>
+        <v>1661.126</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>06/01/2021 01:35:28</t>
+          <t>06/11/2021 00:41:58</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>94.05466666666666</v>
+        <v>89.626</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>06/01/2021 01:36:51</t>
+          <t>06/11/2021 00:42:59</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.73733333333332</v>
+        <v>126.804</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06/01/2021 01:38:11</t>
+          <t>06/11/2021 00:47:13</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>71.37633333333333</v>
+        <v>66.79533333333332</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>06/01/2021 01:39:32</t>
+          <t>06/11/2021 00:48:18</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.96033333333333</v>
+        <v>70.25333333333334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>06/01/2021 01:40:51</t>
+          <t>06/11/2021 00:49:22</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.77066666666667</v>
+        <v>69.83866666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>06/01/2021 01:42:09</t>
+          <t>06/11/2021 00:50:26</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25.922</v>
+        <v>75.28666666666668</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>06/01/2021 01:43:32</t>
+          <t>06/11/2021 00:51:30</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.927</v>
+        <v>26.04066666666666</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>06/01/2021 01:44:52</t>
+          <t>06/11/2021 00:52:34</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.839</v>
+        <v>118.464</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>06/01/2021 01:46:04</t>
+          <t>06/11/2021 00:53:40</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.9015</v>
+        <v>75.65133333333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>06/01/2021 01:47:22</t>
+          <t>06/11/2021 00:54:45</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.738</v>
+        <v>28.222</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>06/01/2021 01:48:41</t>
+          <t>06/11/2021 00:55:48</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.817</v>
+        <v>30.106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>06/01/2021 01:49:55</t>
+          <t>06/11/2021 00:56:54</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.294</v>
+        <v>29.575</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>06/01/2021 01:51:10</t>
+          <t>06/11/2021 00:57:58</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>30.4065</v>
+        <v>25.652</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>06/01/2021 01:52:27</t>
+          <t>06/11/2021 00:59:00</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.4975</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>06/01/2021 01:53:41</t>
+          <t>06/11/2021 01:00:04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.348</v>
+        <v>27.521</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>06/01/2021 01:54:56</t>
+          <t>06/11/2021 01:01:08</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>32.095</v>
+        <v>27.521</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>06/01/2021 01:56:15</t>
+          <t>06/11/2021 01:02:09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.707</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>06/01/2021 01:57:32</t>
+          <t>06/11/2021 01:03:16</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.094</v>
+        <v>25.72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>06/01/2021 01:58:53</t>
+          <t>06/11/2021 01:04:19</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.613</v>
+        <v>25.776</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>06/01/2021 02:00:09</t>
+          <t>06/11/2021 01:05:23</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.7645</v>
+        <v>25.376</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>06/01/2021 02:01:23</t>
+          <t>06/11/2021 01:06:29</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>97.33799999999999</v>
+        <v>26.066</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>06/01/2021 02:02:44</t>
+          <t>06/11/2021 01:07:33</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>94.2405</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>06/01/2021 02:04:04</t>
+          <t>06/11/2021 01:08:37</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>92.804</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>06/01/2021 02:05:23</t>
+          <t>06/11/2021 01:09:43</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100.5305</v>
+        <v>30.977</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>06/01/2021 02:06:38</t>
+          <t>06/11/2021 01:10:48</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>92.684</v>
+        <v>31.461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>06/01/2021 02:07:59</t>
+          <t>06/11/2021 01:11:52</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>92.28700000000001</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>06/01/2021 02:09:17</t>
+          <t>06/11/2021 01:12:59</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>94.1495</v>
+        <v>23.888</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>06/01/2021 02:10:36</t>
+          <t>06/11/2021 01:14:05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>94.2055</v>
+        <v>159.864</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>06/01/2021 02:11:54</t>
+          <t>06/11/2021 01:15:07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>93.187</v>
+        <v>162.586</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>06/01/2021 02:13:18</t>
+          <t>06/11/2021 01:16:10</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>57.859</v>
+        <v>162.656</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>06/01/2021 02:14:33</t>
+          <t>06/11/2021 01:20:24</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>61.1435</v>
+        <v>156.405</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>06/01/2021 02:15:49</t>
+          <t>06/11/2021 01:21:27</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>27.2785</v>
+        <v>25.405</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>06/01/2021 02:17:04</t>
+          <t>06/11/2021 01:22:32</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25.024</v>
+        <v>92.90600000000001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>06/01/2021 02:18:25</t>
+          <t>06/11/2021 01:23:38</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>26.383</v>
+        <v>161.734</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>06/01/2021 02:19:41</t>
+          <t>06/11/2021 01:24:42</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>33.328</v>
+        <v>65.483</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>06/01/2021 02:20:59</t>
+          <t>06/11/2021 01:25:48</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25.172</v>
+        <v>126.884</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06/01/2021 02:22:16</t>
+          <t>06/11/2021 01:26:53</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25.12</v>
+        <v>129.796</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06/01/2021 02:23:32</t>
+          <t>06/11/2021 01:27:58</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>25.172</v>
+        <v>97.20650000000001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>06/01/2021 02:24:52</t>
+          <t>06/11/2021 01:29:03</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>24.298</v>
+        <v>93.56999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>06/01/2021 02:26:11</t>
+          <t>06/11/2021 01:30:08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>27.316</v>
+        <v>98.053</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>06/01/2021 02:27:31</t>
+          <t>06/11/2021 01:31:14</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>26.735</v>
+        <v>26.052</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>06/01/2021 02:28:48</t>
+          <t>06/11/2021 01:32:19</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>27.929</v>
+        <v>226.421</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>06/01/2021 02:30:05</t>
+          <t>06/11/2021 01:33:22</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25.224</v>
+        <v>93.54299999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>06/01/2021 02:31:23</t>
+          <t>06/11/2021 01:34:28</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25.248</v>
+        <v>27.608</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>06/01/2021 02:32:46</t>
+          <t>06/11/2021 01:35:31</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>23.92</v>
+        <v>24.953</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>06/01/2021 02:34:03</t>
+          <t>06/11/2021 01:36:33</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>159.498</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>06/01/2021 02:35:13</t>
+          <t>06/11/2021 01:37:36</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>166.586</v>
+        <v>26.096</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>06/01/2021 02:36:24</t>
+          <t>06/11/2021 01:38:43</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>153.564</v>
+        <v>26.096</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>06/01/2021 02:41:19</t>
+          <t>06/11/2021 01:39:51</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>129.33</v>
+        <v>30.652</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>06/01/2021 02:42:33</t>
+          <t>06/11/2021 01:40:58</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>95.85849999999999</v>
+        <v>27.898</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>06/01/2021 02:43:54</t>
+          <t>06/11/2021 01:42:06</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>92.2265</v>
+        <v>27.898</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>06/01/2021 02:45:20</t>
+          <t>06/11/2021 01:43:14</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>59.0355</v>
+        <v>32.864</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>06/01/2021 02:46:42</t>
+          <t>06/11/2021 01:44:24</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>93.2055</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>06/01/2021 02:48:13</t>
+          <t>06/11/2021 01:45:31</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>56.04649999999999</v>
+        <v>25.624</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>06/01/2021 02:49:39</t>
+          <t>06/11/2021 01:46:41</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>93.36499999999999</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>06/01/2021 02:51:06</t>
+          <t>06/11/2021 01:47:53</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>92.08200000000001</v>
+        <v>28.389</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>06/01/2021 02:52:39</t>
+          <t>06/11/2021 01:49:02</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>96.511</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>06/01/2021 02:54:15</t>
+          <t>06/11/2021 01:50:11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>92.768</v>
+        <v>25.928</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>06/01/2021 02:55:41</t>
+          <t>06/11/2021 01:51:27</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>59.188</v>
+        <v>25.424</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>06/01/2021 02:56:55</t>
+          <t>06/11/2021 01:52:34</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>25.376</v>
+        <v>25.472</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>06/01/2021 02:58:10</t>
+          <t>06/11/2021 01:53:42</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>25.365</v>
+        <v>26.392</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>06/01/2021 02:59:28</t>
+          <t>06/11/2021 01:55:52</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>25.633</v>
+        <v>160.446</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>06/01/2021 03:00:55</t>
+          <t>06/11/2021 01:56:54</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25.527</v>
+        <v>156.716</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>06/01/2021 03:02:20</t>
+          <t>06/11/2021 01:57:56</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>28.691</v>
+        <v>157.608</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>06/01/2021 03:03:45</t>
+          <t>06/11/2021 02:02:04</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>25.12</v>
+        <v>86.06</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>06/01/2021 03:05:10</t>
+          <t>06/11/2021 02:03:19</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25.168</v>
+        <v>61.172</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>06/01/2021 03:06:41</t>
+          <t>06/11/2021 02:04:27</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>25.248</v>
+        <v>94.17400000000001</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>06/01/2021 03:08:06</t>
+          <t>06/11/2021 02:05:35</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>25.12</v>
+        <v>151.308</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>06/01/2021 03:09:31</t>
+          <t>06/11/2021 02:06:43</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>26.284</v>
+        <v>61.198</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>06/01/2021 03:10:54</t>
+          <t>06/11/2021 02:07:51</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>26.448</v>
+        <v>128.545</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>06/01/2021 03:12:23</t>
+          <t>06/11/2021 02:09:11</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>28.58</v>
+        <v>91.26000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>06/01/2021 03:13:47</t>
+          <t>06/11/2021 02:10:24</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20.794</v>
+        <v>61.121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>06/01/2021 03:15:14</t>
+          <t>06/11/2021 02:11:26</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>162.564</v>
+        <v>20.5915</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>06/01/2021 03:16:26</t>
+          <t>06/11/2021 02:12:37</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>99.53400000000001</v>
+        <v>159.1465</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>06/01/2021 03:17:51</t>
+          <t>06/11/2021 02:13:48</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>161.7</v>
+        <v>98.099</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>06/01/2021 03:22:49</t>
+          <t>06/11/2021 02:15:00</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>91.76050000000001</v>
+        <v>29.199</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>06/01/2021 03:24:12</t>
+          <t>06/11/2021 02:16:04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>90.134</v>
+        <v>25.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>06/01/2021 03:25:35</t>
+          <t>06/11/2021 02:17:07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>97.649</v>
+        <v>26.059</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>06/01/2021 03:26:57</t>
+          <t>06/11/2021 02:18:09</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>94.71550000000001</v>
+        <v>30.354</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>06/01/2021 03:28:19</t>
+          <t>06/11/2021 02:19:20</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>91.834</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>06/01/2021 03:29:44</t>
+          <t>06/11/2021 02:20:28</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>102.719</v>
+        <v>25.48</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>06/01/2021 03:31:07</t>
+          <t>06/11/2021 02:21:41</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>105.954</v>
+        <v>25.472</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>06/01/2021 03:32:31</t>
+          <t>06/11/2021 02:22:48</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>105.1675</v>
+        <v>30.323</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>06/01/2021 03:33:55</t>
+          <t>06/11/2021 02:23:58</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>105.833</v>
+        <v>27.916</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>06/01/2021 03:35:29</t>
+          <t>06/11/2021 02:25:06</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>73.413</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>06/01/2021 03:36:44</t>
+          <t>06/11/2021 02:26:19</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>38.4215</v>
+        <v>25.642</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>06/01/2021 03:38:00</t>
+          <t>06/11/2021 02:27:29</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>37.64</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>06/01/2021 03:39:17</t>
+          <t>06/11/2021 02:28:42</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>37.368</v>
+        <v>25.472</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>06/01/2021 03:40:45</t>
+          <t>06/11/2021 02:29:55</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>37.492</v>
+        <v>25.504</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>06/01/2021 03:42:07</t>
+          <t>06/11/2021 02:31:07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>37.416</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>06/01/2021 03:43:26</t>
+          <t>06/11/2021 02:32:22</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>37.812</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>06/01/2021 03:44:46</t>
+          <t>06/11/2021 02:33:31</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>38.128</v>
+        <v>27.204</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>06/01/2021 03:46:05</t>
+          <t>06/11/2021 02:34:39</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>37.168</v>
+        <v>25.394</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>06/01/2021 03:47:23</t>
+          <t>06/11/2021 02:35:47</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>36.763</v>
+        <v>91.678</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>06/01/2021 03:48:42</t>
+          <t>06/11/2021 02:36:55</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>37.448</v>
+        <v>90.81</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>06/01/2021 03:50:01</t>
+          <t>06/11/2021 02:38:06</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>39.834</v>
+        <v>26.424</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>06/01/2021 03:51:20</t>
+          <t>06/11/2021 02:39:09</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>37.097</v>
+        <v>427.28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>06/01/2021 03:52:45</t>
+          <t>06/11/2021 02:40:11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>38.746</v>
+        <v>160.192</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>06/01/2021 03:54:05</t>
+          <t>06/11/2021 02:41:19</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>37.488</v>
+        <v>161.098</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>06/01/2021 03:55:26</t>
+          <t>06/11/2021 02:42:21</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>172.848</v>
+        <v>168.132</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>06/01/2021 03:56:37</t>
+          <t>06/11/2021 02:43:30</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>173.809</v>
+        <v>15.386</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>06/01/2021 03:57:48</t>
+          <t>06/11/2021 02:45:45</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>172.264</v>
+        <v>226.877</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>06/01/2021 04:02:40</t>
+          <t>06/11/2021 02:46:47</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>66.3635</v>
+        <v>157.482</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>06/01/2021 04:04:20</t>
+          <t>06/11/2021 02:47:58</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>140.2595</v>
+        <v>223.902</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>06/01/2021 04:05:55</t>
+          <t>06/11/2021 02:49:11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>104.74</v>
+        <v>168.222</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>06/01/2021 04:07:23</t>
+          <t>06/11/2021 02:50:28</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>107.816</v>
+        <v>161.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>06/01/2021 04:08:52</t>
+          <t>06/11/2021 02:51:42</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>102.7745</v>
+        <v>162.424</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>06/01/2021 04:10:20</t>
+          <t>06/11/2021 02:52:56</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>71.964</v>
+        <v>90.17100000000001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>06/01/2021 04:11:36</t>
+          <t>06/11/2021 02:54:04</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>104.728</v>
+        <v>160.384</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>06/01/2021 04:13:04</t>
+          <t>06/11/2021 02:55:06</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>34.8295</v>
+        <v>295.288</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>06/01/2021 04:14:18</t>
+          <t>06/11/2021 02:56:19</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>69.5275</v>
+        <v>33.812</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>06/01/2021 04:15:32</t>
+          <t>06/11/2021 02:57:26</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>109.2845</v>
+        <v>25.288</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>06/01/2021 04:17:01</t>
+          <t>06/11/2021 02:58:35</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>37.293</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>06/01/2021 04:18:16</t>
+          <t>06/11/2021 02:59:45</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>41.1165</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>06/01/2021 04:19:30</t>
+          <t>06/11/2021 03:01:13</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>41.258</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>06/01/2021 04:20:48</t>
+          <t>06/11/2021 03:02:44</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>43.25</v>
+        <v>27.898</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>06/01/2021 04:22:17</t>
+          <t>06/11/2021 03:04:13</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>43.25</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>06/01/2021 04:23:39</t>
+          <t>06/11/2021 03:05:42</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>37.676</v>
+        <v>30.17</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>06/01/2021 04:25:05</t>
+          <t>06/11/2021 03:07:05</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>42.58</v>
+        <v>25.272</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>06/01/2021 04:26:36</t>
+          <t>06/11/2021 03:08:34</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>38.957</v>
+        <v>25.224</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>06/01/2021 04:28:02</t>
+          <t>06/11/2021 03:10:02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>37.88</v>
+        <v>35.112</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>06/01/2021 04:29:29</t>
+          <t>06/11/2021 03:11:28</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>42.386</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>06/01/2021 04:30:58</t>
+          <t>06/11/2021 03:12:47</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>42.633</v>
+        <v>30.723</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>06/01/2021 04:32:35</t>
+          <t>06/11/2021 03:14:04</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>37.676</v>
+        <v>25.168</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>06/01/2021 04:34:02</t>
+          <t>06/11/2021 03:15:25</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>37.52</v>
+        <v>17.724</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>06/01/2021 04:35:28</t>
+          <t>06/11/2021 03:16:47</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>106.09</v>
+        <v>163.455</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>06/01/2021 04:36:54</t>
+          <t>06/11/2021 03:18:08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>101.306</v>
+        <v>160.376</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>06/01/2021 04:38:30</t>
+          <t>06/11/2021 03:19:31</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>244.001</v>
+        <v>164.718</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>06/01/2021 04:39:41</t>
+          <t>06/11/2021 03:20:54</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>240.878</v>
+        <v>167.001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>06/01/2021 04:40:52</t>
+          <t>06/11/2021 03:22:26</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>102.19</v>
+        <v>160.224</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>06/01/2021 04:45:57</t>
+          <t>06/11/2021 03:23:44</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>180.063</v>
+        <v>160.224</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>06/01/2021 04:47:12</t>
+          <t>06/11/2021 03:25:03</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>158.7395</v>
+        <v>28.514</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>06/01/2021 04:48:47</t>
+          <t>06/11/2021 03:26:36</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>155.1315</v>
+        <v>294.592</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>06/01/2021 04:50:30</t>
+          <t>06/11/2021 03:28:54</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>103.702</v>
+        <v>88.956</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>06/01/2021 04:52:05</t>
+          <t>06/11/2021 03:30:07</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>52.077</v>
+        <v>25.706</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>06/01/2021 04:53:19</t>
+          <t>06/11/2021 03:51:45</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>104.7875</v>
+        <v>521.55</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>06/01/2021 04:54:53</t>
+          <t>06/11/2021 03:52:55</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>72.49550000000001</v>
+        <v>124.858</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>06/01/2021 04:56:08</t>
+          <t>06/11/2021 03:54:05</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>106.0005</v>
+        <v>25.928</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>06/01/2021 04:57:45</t>
+          <t>06/11/2021 03:55:25</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>37.752</v>
+        <v>25.268</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>06/01/2021 04:59:00</t>
+          <t>06/11/2021 03:56:39</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>31.532</v>
+        <v>27.34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>06/01/2021 05:00:16</t>
+          <t>06/11/2021 03:57:51</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>28.241</v>
+        <v>28.278</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>06/01/2021 05:01:33</t>
+          <t>06/11/2021 04:17:30</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>25.947</v>
+        <v>667.256</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>06/01/2021 05:03:10</t>
+          <t>06/11/2021 04:18:40</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>27.677</v>
+        <v>84.124</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>06/01/2021 05:04:50</t>
+          <t>06/11/2021 04:19:55</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>27.781</v>
+        <v>102.676</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>06/01/2021 05:06:21</t>
+          <t>06/11/2021 04:21:06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>25.22</v>
+        <v>25.672</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>06/01/2021 05:08:01</t>
+          <t>06/11/2021 04:22:18</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>25.472</v>
+        <v>304.858</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>06/01/2021 05:09:40</t>
+          <t>06/11/2021 04:23:28</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>25.144</v>
+        <v>27.568</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>06/01/2021 05:11:07</t>
+          <t>06/11/2021 04:24:40</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>25.524</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>06/01/2021 05:12:39</t>
+          <t>06/11/2021 04:25:59</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>27.925</v>
+        <v>25.296</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>06/01/2021 05:14:12</t>
+          <t>06/11/2021 04:27:09</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>28.477</v>
+        <v>25.272</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>06/01/2021 05:15:46</t>
+          <t>06/11/2021 04:28:24</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>95.742</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>06/01/2021 05:17:21</t>
+          <t>06/11/2021 04:29:34</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>160.975</v>
+        <v>30.642</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>06/01/2021 05:18:33</t>
+          <t>06/11/2021 04:30:45</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>158.639</v>
+        <v>30.498</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>06/01/2021 05:19:56</t>
+          <t>06/11/2021 04:31:57</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>93.553</v>
+        <v>27.801</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>06/01/2021 05:21:19</t>
+          <t>06/11/2021 04:33:10</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>162.112</v>
+        <v>34.802</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>06/01/2021 05:22:30</t>
+          <t>06/11/2021 04:34:21</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>166.678</v>
+        <v>36.584</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>06/01/2021 05:23:41</t>
+          <t>06/11/2021 04:35:37</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>235.564</v>
+        <v>25.288</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>06/01/2021 05:28:36</t>
+          <t>06/11/2021 04:36:53</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>93.83550000000001</v>
+        <v>91.06399999999999</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>06/01/2021 05:30:15</t>
+          <t>06/11/2021 04:37:57</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>184.039</v>
+        <v>157.878</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>06/01/2021 05:31:29</t>
+          <t>06/11/2021 04:39:01</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>138.308</v>
+        <v>31.028</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>06/01/2021 05:33:01</t>
+          <t>06/11/2021 04:43:22</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>103.564</v>
+        <v>8941.76</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>06/01/2021 05:34:30</t>
+          <t>06/11/2021 04:45:32</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>96.774</v>
+        <v>294.168</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>06/01/2021 05:35:44</t>
+          <t>06/11/2021 04:46:35</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>94.643</v>
+        <v>26.664</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>06/01/2021 05:36:59</t>
+          <t>06/11/2021 04:51:43</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>59.9265</v>
+        <v>451.2675</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>06/01/2021 05:38:16</t>
+          <t>06/11/2021 04:52:48</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>25.776</v>
+        <v>125.728</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>06/01/2021 05:39:48</t>
+          <t>06/11/2021 04:54:45</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>25.776</v>
+        <v>58.7145</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>06/01/2021 05:42:06</t>
+          <t>06/11/2021 04:56:13</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>25.776</v>
+        <v>90.998</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>06/01/2021 05:44:09</t>
+          <t>06/11/2021 04:57:24</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>25.472</v>
+        <v>94.36799999999999</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>06/01/2021 05:46:20</t>
+          <t>06/11/2021 04:58:34</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>25.472</v>
+        <v>99.545</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>06/01/2021 05:48:31</t>
+          <t>06/11/2021 04:59:42</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>39.986</v>
+        <v>234.766</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>06/01/2021 05:50:38</t>
+          <t>06/11/2021 05:00:45</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>26.594</v>
+        <v>44.33866666666666</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>06/01/2021 05:53:10</t>
+          <t>06/11/2021 05:01:49</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>30.066</v>
+        <v>26.06166666666667</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>06/01/2021 05:55:18</t>
+          <t>06/11/2021 05:02:53</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>25.48</v>
+        <v>26.795</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>06/01/2021 05:57:38</t>
+          <t>06/11/2021 05:03:57</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>232.932</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>06/01/2021 05:58:48</t>
+          <t>06/11/2021 05:05:03</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>156.196</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>06/01/2021 06:00:19</t>
+          <t>06/11/2021 05:06:06</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>304.792</v>
+        <v>25.984</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>06/01/2021 06:01:30</t>
+          <t>06/11/2021 05:07:58</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>163.668</v>
+        <v>25.984</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>06/01/2021 06:02:58</t>
+          <t>06/11/2021 05:09:30</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>157.906</v>
+        <v>25.448</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>06/01/2021 06:08:18</t>
+          <t>06/11/2021 05:11:06</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>170.208</v>
+        <v>25.576</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>06/01/2021 06:09:45</t>
+          <t>06/11/2021 05:12:28</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>144.577</v>
+        <v>27.872</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>06/01/2021 06:11:17</t>
+          <t>06/11/2021 05:13:42</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>99.465</v>
+        <v>28.161</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>06/01/2021 06:12:55</t>
+          <t>06/11/2021 05:15:25</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>100.07</v>
+        <v>27.855</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>06/01/2021 06:14:30</t>
+          <t>06/11/2021 05:16:40</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>162.529</v>
+        <v>23.067</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>06/01/2021 06:16:11</t>
+          <t>06/11/2021 05:17:53</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>92.024</v>
+        <v>89.17400000000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>06/01/2021 06:17:27</t>
+          <t>06/11/2021 05:18:57</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>26.348</v>
+        <v>160.008</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>06/01/2021 06:18:42</t>
+          <t>06/11/2021 05:20:00</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>26.774</v>
+        <v>167.508</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>06/01/2021 06:20:00</t>
+          <t>06/11/2021 05:21:29</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>25.984</v>
+        <v>152.714</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>06/01/2021 06:21:32</t>
+          <t>06/11/2021 05:22:34</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>25.984</v>
+        <v>160.263</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>06/01/2021 06:22:55</t>
+          <t>06/11/2021 05:23:38</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>25.656</v>
+        <v>166.826</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>06/01/2021 06:24:23</t>
+          <t>06/11/2021 05:27:48</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>25.64</v>
+        <v>655.5965</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>06/01/2021 06:25:51</t>
+          <t>06/11/2021 05:29:15</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>25.576</v>
+        <v>59.28</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>06/01/2021 06:27:28</t>
+          <t>06/11/2021 05:30:46</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>54.206</v>
+        <v>92.8015</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>06/01/2021 06:29:02</t>
+          <t>06/11/2021 05:32:43</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>25.576</v>
+        <v>128.615</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>06/01/2021 06:30:38</t>
+          <t>06/11/2021 05:34:23</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>25.472</v>
+        <v>97.4285</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>06/01/2021 06:32:18</t>
+          <t>06/11/2021 05:35:41</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>25.528</v>
+        <v>93.1155</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>06/01/2021 06:34:04</t>
+          <t>06/11/2021 05:37:15</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>25.528</v>
+        <v>25.966</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>06/01/2021 06:35:40</t>
+          <t>06/11/2021 05:39:14</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>25.12</v>
+        <v>26.9205</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>06/01/2021 06:37:16</t>
+          <t>06/11/2021 05:40:18</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>160.496</v>
+        <v>26.133</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>06/01/2021 06:38:50</t>
+          <t>06/11/2021 05:41:21</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>150.264</v>
+        <v>59.4495</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>06/01/2021 06:40:25</t>
+          <t>06/11/2021 05:42:26</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>165.786</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>06/01/2021 06:41:37</t>
+          <t>06/11/2021 05:44:01</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>162.14</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>06/01/2021 06:43:21</t>
+          <t>06/11/2021 05:45:42</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>17.732</v>
+        <v>28.267</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>06/01/2021 06:45:01</t>
+          <t>06/11/2021 05:47:14</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>30.186</v>
+        <v>26.686</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>06/01/2021 06:46:39</t>
+          <t>06/11/2021 05:48:39</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>294.766</v>
+        <v>25.552</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>06/01/2021 06:47:51</t>
+          <t>06/11/2021 05:50:39</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>159.058</v>
+        <v>26.31</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>06/01/2021 06:49:18</t>
+          <t>06/11/2021 05:52:30</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>160.652</v>
+        <v>29.437</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>06/01/2021 06:50:48</t>
+          <t>06/11/2021 05:54:21</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>163.022</v>
+        <v>25.292</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>06/01/2021 06:52:13</t>
+          <t>06/11/2021 05:55:45</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>160.2</v>
+        <v>26.665</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>06/01/2021 06:53:39</t>
+          <t>06/11/2021 05:57:15</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>303.696</v>
+        <v>92.59099999999999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>06/01/2021 06:56:01</t>
+          <t>06/11/2021 05:58:41</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>184.93</v>
+        <v>160.73</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>06/01/2021 06:57:18</t>
+          <t>06/11/2021 06:00:12</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>162.058</v>
+        <v>19.528</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>06/01/2021 06:58:44</t>
+          <t>06/11/2021 06:01:36</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>27.916</v>
+        <v>163.648</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>06/01/2021 07:00:09</t>
+          <t>06/11/2021 06:02:55</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>25.32</v>
+        <v>162.634</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>06/01/2021 07:01:47</t>
+          <t>06/11/2021 06:04:14</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>44.44</v>
+        <v>159.824</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>06/01/2021 07:03:03</t>
+          <t>06/11/2021 06:05:55</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>30.642</v>
+        <v>160.22</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>06/01/2021 07:04:40</t>
+          <t>06/11/2021 06:07:17</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>25.32</v>
+        <v>161.054</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>06/01/2021 07:05:56</t>
+          <t>06/11/2021 06:08:20</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>25.409</v>
+        <v>157.926</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>06/01/2021 07:07:32</t>
+          <t>06/11/2021 06:09:23</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>25.328</v>
+        <v>227.724</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>06/01/2021 07:09:05</t>
+          <t>06/11/2021 06:13:32</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>25.024</v>
+        <v>748.323</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>06/01/2021 07:10:22</t>
+          <t>06/11/2021 06:14:52</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>25.408</v>
+        <v>58.0295</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>06/01/2021 07:11:57</t>
+          <t>06/11/2021 06:15:55</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>25.144</v>
+        <v>57.34699999999999</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>06/01/2021 07:13:38</t>
+          <t>06/11/2021 06:17:00</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>25.176</v>
+        <v>158.944</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>06/01/2021 07:16:22</t>
+          <t>06/11/2021 06:18:36</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>40.036</v>
+        <v>65.137</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>06/01/2021 07:17:50</t>
+          <t>06/11/2021 06:19:39</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>19.688</v>
+        <v>26.2265</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>06/01/2021 07:19:35</t>
+          <t>06/11/2021 06:20:42</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>294.888</v>
+        <v>26.8455</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>06/01/2021 07:20:47</t>
+          <t>06/11/2021 06:21:47</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>152.06</v>
+        <v>25.776</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:23:09</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>25.776</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:24:32</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>25.576</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:26:24</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>25.48</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:28:18</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>25.576</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:29:37</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>25.68</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:31:14</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>25.376</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:33:11</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:34:57</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>25.328</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:36:07</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>30.276</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:37:22</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>30.07</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:38:53</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>148.776</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:40:06</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>160.822</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:41:42</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>168.746</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:43:21</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>198.766</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:44:49</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>182.68</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:46:43</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>161.748</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:48:23</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>163.594</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:49:50</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>155.14</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:51:10</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>304.45</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:52:12</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>295.37</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:53:16</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>161.136</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:58:09</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>93.01400000000001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>06/11/2021 06:59:12</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>25.404</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:00:17</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>25.201</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:01:20</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>28.866</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:03:10</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>28.866</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:04:19</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>25.984</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:06:18</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>25.632</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:08:13</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>25.928</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:09:33</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:10:52</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>26.842</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:12:42</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>25.824</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:14:04</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>25.528</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:16:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>31.978</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:17:21</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>26.088</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/engine-asg/network.xlsx
+++ b/dataset/engine-asg/network.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3295,6 +3295,1586 @@
         <v>26.088</v>
       </c>
     </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:20:38</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>94.681</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:22:24</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>165.93</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:23:36</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>160.646</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:24:53</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>160.549</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:26:20</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>16.832</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:28:12</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>24.73</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:29:27</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>26.462</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:30:39</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>68.89400000000001</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:31:52</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>68.651</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:33:04</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>24.17</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:34:14</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>26.438</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:35:27</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>25.472</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:36:42</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>25.053</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:37:56</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>25.656</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:39:06</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>25.528</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:40:17</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:41:33</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>25.552</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:42:43</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>25.248</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:43:56</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>26.537</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:45:07</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>25.528</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:46:24</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>24.026</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:47:39</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>25.851</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:48:52</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>25.324</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:50:08</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>25.632</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:52:01</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>25.328</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:53:23</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>25.224</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:55:18</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:57:05</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:58:33</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>28.201</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>06/11/2021 07:59:54</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>27.821</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:01:57</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>24.825</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:03:22</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>26.174</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:05:05</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>28.596</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:07:14</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>24.634</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:09:22</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>25.754</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:11:15</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>28.968</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:12:48</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>25.719</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:14:46</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>112.84</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:16:18</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>25.786</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:17:43</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>25.144</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:19:15</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:21:05</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:22:36</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>25.775</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:24:10</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>24.834</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:28:55</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>24.721</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:30:55</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>24.8855</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:31:58</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>26.015</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:36:38</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>25.3625</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:37:42</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>242.867</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:38:47</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>34.19866666666667</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:40:15</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>56.53666666666666</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:44:31</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>25.784</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:45:55</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>119.9165</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:47:01</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>25.3305</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:51:18</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>25.73675</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:52:38</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>25.8644</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:53:42</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>27.6248</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:54:47</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>26.1296</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:56:32</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>27.0864</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:57:55</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>25.5394</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>06/11/2021 08:59:22</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>26.8558</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:00:29</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>25.8716</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:02:43</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>25.056</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:04:35</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>26.8478</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:06:35</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>25.6056</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:07:42</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>30.5872</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:09:37</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>29.2306</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:11:35</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>32.575</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:13:10</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>25.7796</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:15:03</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>29.3884</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:16:09</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>26.3216</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:17:33</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>24.9512</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:18:38</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>26.47</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:19:46</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>26.074</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:20:53</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>25.959</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:22:45</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>25.915</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:24:32</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>28.43175</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:26:18</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>25.304</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:27:36</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>26.1605</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:28:41</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>26.50225</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:30:22</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>25.44175</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:32:12</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>25.771</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:34:07</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>26.0445</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:39:59</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>27.67425</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:42:29</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>30.4608</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:45:14</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>26.01</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:47:06</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>25.3648</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:48:57</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>26.2462</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:50:44</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>28.6042</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:52:44</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>26.0356</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:53:52</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>26.3006</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:55:38</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>25.9266</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:57:08</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>25.114</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>06/11/2021 09:58:47</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>25.7526</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:00:31</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>25.1076</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:02:09</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>26.224</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:03:44</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>26.3432</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:05:21</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>25.9314</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:06:27</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>26.5506</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:08:04</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:09:43</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>26.742</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:11:33</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>25.9798</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:13:12</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>25.3248</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:14:17</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>26.841</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:15:23</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>25.386</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:17:01</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>25.3344</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:18:31</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>25.64980000000001</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:19:38</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>26.35580000000001</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:20:43</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>25.7178</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:21:48</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>25.4908</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:26:07</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>25.0644</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:27:12</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>25.4812</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:28:18</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>24.9725</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:29:24</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>26.22725</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:30:30</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>26.27725</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:31:37</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>25.93466666666667</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:32:43</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>26.77733333333333</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:33:48</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>26.43466666666667</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:34:54</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>27.652</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:36:30</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>27.516</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:38:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>25.196</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:39:07</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>39.164</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:40:51</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>26.461</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:41:55</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>25.999</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:43:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>25.348</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:44:06</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>25.434</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:45:30</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>25.22</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:47:18</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>24.322</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:48:51</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>25.719</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:50:17</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:51:44</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:53:22</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>26.166</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:54:49</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>24.797</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:56:22</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>26.118</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:57:49</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>25.296</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>06/11/2021 10:59:31</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>25.448</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:01:04</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:02:35</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>28.48</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:04:13</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>25.272</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:05:21</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>25.472</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:06:49</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>25.268</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:08:19</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>25.328</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:11:47</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>25.528</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:14:31</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>25.352</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:19:57</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>25.324</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:22:40</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>25.578</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:23:44</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>25.582</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:27:59</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>1389.649333333334</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:29:04</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:32:15</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>25.536</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:38:02</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>25.55733333333333</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:41:52</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>27.05325000000001</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:45:16</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>25.407</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:48:16</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>26.0915</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:51:20</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>27.58925</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:54:48</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>27.2715</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>06/11/2021 11:58:39</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>06/11/2021 12:01:49</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>26.35175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
